--- a/Automation_POM/DataSheet/TestData.xlsx
+++ b/Automation_POM/DataSheet/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deeksha.sharma\Downloads\SEL\Selenium\POM\DataSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F71CB-47D3-47A4-A275-B3BDCDB4662C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C6BDF9F1-9675-4FEA-A52A-B4F415A54DD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20760" windowHeight="11820" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -20,7 +15,8 @@
     <sheet name="Sheetfirefox" sheetId="11" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -215,7 +211,7 @@
     <t>TcName</t>
   </si>
   <si>
-    <t>Testcase 1</t>
+    <t>Account Details</t>
   </si>
 </sst>
 </file>
@@ -581,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +593,7 @@
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -667,6 +664,16 @@
       </c>
       <c r="K2" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
